--- a/TestData/Request_test_data.xlsx
+++ b/TestData/Request_test_data.xlsx
@@ -1,40 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="22800" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="登陆名" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>chenjiajia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chenjiajia123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chenjiajia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfsdfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chenjiajia@chinaedutar,net</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqurls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parametes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.geneedu.cn/honeybee/passport/login/logon.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"returnUrl":"",
+"userVo.loginName":"",
+"userVo.password":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"returnUrl":"",
+"userVo.loginName":"chenjiajia",
+"userVo.password":"xxxxxxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"returnUrl":"",
+"userVo.loginName":"chenjiajia@chinaedustar.net",
+"userVo.password":"ac1e1f9138e18dcca01311bd10abecf5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqtypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"returnUrl":"","userVo.loginName":"chenjiajia","userVo.password":"ac1e1f9138e18dcca01311bd10abecf5"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,9 +118,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,49 +432,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="56.875" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/TestData/Request_test_data.xlsx
+++ b/TestData/Request_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="22800" windowHeight="4740"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="22800" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="登陆名" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +28,6 @@
   </si>
   <si>
     <t>parametes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,7 +431,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +440,6 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="56.875" customWidth="1"/>
     <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -452,16 +447,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -469,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -483,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -497,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -511,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
